--- a/Konakart/src/test/resources/testdata/customerreviewdata.xlsx
+++ b/Konakart/src/test/resources/testdata/customerreviewdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19395" windowHeight="5880"/>
+    <workbookView windowWidth="15225" windowHeight="2730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>dropdown</t>
+    <t>categories</t>
   </si>
   <si>
     <t>review</t>
@@ -26,19 +26,65 @@
     <t>Most recent first</t>
   </si>
   <si>
+    <t>by Missie Elliot
+Wednesday 16 October 2013
+It's cool
+by csolution user
+Thursday 9 May 2013
+Very good
+by Paolo Sidoli
+Thursday 7 February 2013
+The Kindle Fire HD is a solid choice for someone looking for something like an iPad but without the high price tag. If you're prepared to go for a slightly more complex tablet, the Nexus 7 is better though.</t>
+  </si>
+  <si>
     <t>Oldest first</t>
   </si>
   <si>
-    <t>Very good</t>
+    <t>by test data
+Friday 6 December 2013
+My first review to verify the system
+by abc def
+Friday 25 September 2015
+akdakfjdak
+by Keiko Kondo
+Thursday 17 December 2015
+test
+by Ashis Parajuli
+Thursday 7 July 2016
+sdfbgfg</t>
   </si>
   <si>
-    <t>Rating: high to low</t>
+    <t>Rating:high to low</t>
   </si>
   <si>
-    <t>The Kindle Fire HD is a solid choice for someone looking for something like an iPad but without the high price tag. If you're prepared to go for a slightly more complex tablet, the Nexus 7 is better though.</t>
+    <t xml:space="preserve">by csolution user
+Thursday 9 May 2013
+Very good
+by Paolo Sidoli
+Thursday 7 February 2013
+The Kindle Fire HD is a solid choice for someone looking for something like an iPad but without the high price tag. If you're prepared to go for a slightly more complex tablet, the Nexus 7 is better though.
+by Missie Elliot
+Wednesday 16 October 2013
+It's cool
+</t>
   </si>
   <si>
-    <t>Rating: low to high</t>
+    <t>Rating:low to high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by abc def
+Friday 25 September 2015
+akdakfjdak
+by Keiko Kondo
+Thursday 17 December 2015
+test
+by test data
+Friday 6 December 2013
+My first review to verify the system
+by Ashis Parajuli
+Thursday 7 July 2016
+sdfbgfg
+</t>
   </si>
 </sst>
 </file>
@@ -46,30 +92,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -81,31 +115,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,59 +204,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,31 +226,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,13 +259,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,13 +331,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +355,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,31 +391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,85 +415,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +450,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,15 +492,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -467,17 +507,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,21 +550,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,150 +570,144 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -998,19 +1029,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="24.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="1" max="1" width="26.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1018,36 +1049,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:1">
+    <row r="2" ht="236" customHeight="1" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="3" ht="229" customHeight="1" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" ht="84" customHeight="1" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="4" ht="212" customHeight="1" spans="1:2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" ht="113" customHeight="1" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3"/>
     </row>
-    <row r="6" ht="40" customHeight="1"/>
-    <row r="7" ht="42" customHeight="1"/>
-    <row r="8" ht="45" customHeight="1"/>
+    <row r="5" ht="172" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="71" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
